--- a/cases/goodhostpital2021/院内资料库.xlsx
+++ b/cases/goodhostpital2021/院内资料库.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\山东中医药大学附属医院\F资料库与维度导向库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FBFBD0-28C6-4698-82E6-5C805FD477C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF819828-6AE0-4108-89D9-8770F96E8F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8199" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8184" uniqueCount="121">
   <si>
     <t>Y2018</t>
   </si>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -2753,11 +2753,11 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="Z56" sqref="Z56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -3594,7 +3594,7 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>922222.22222222225</v>
+        <v>92222222.222222224</v>
       </c>
       <c r="E45" s="9">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>55555.555555555555</v>
+        <v>5555555.555555555</v>
       </c>
       <c r="E47" s="9">
-        <v>1003777.7777777778</v>
+        <v>100377777.77777778</v>
       </c>
       <c r="F47" s="9">
-        <v>131427.77777777778</v>
+        <v>13142777.777777778</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5">
@@ -3901,11 +3901,11 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -4742,13 +4742,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>15000</v>
+        <v>1500000</v>
       </c>
       <c r="E45" s="9">
-        <v>869.56521739130437</v>
+        <v>86956.521739130432</v>
       </c>
       <c r="F45" s="9">
-        <v>36476</v>
+        <v>3647600</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5">
@@ -4783,10 +4783,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="9">
-        <v>10747.826086956522</v>
+        <v>1074782.6086956521</v>
       </c>
       <c r="F47" s="9">
-        <v>11096</v>
+        <v>1109600</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5">
@@ -5049,11 +5049,11 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -6197,11 +6197,11 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.1640625" defaultRowHeight="14"/>
@@ -7039,13 +7039,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>14528.301886792451</v>
+        <v>1452830.1886792451</v>
       </c>
       <c r="E45" s="9">
-        <v>8051.8518518518513</v>
+        <v>805185.18518518517</v>
       </c>
       <c r="F45" s="9">
-        <v>29345.283018867922</v>
+        <v>2934528.3018867923</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5">
@@ -7077,13 +7077,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>2799.9999999999995</v>
+        <v>279999.99999999994</v>
       </c>
       <c r="E47" s="9">
-        <v>5762.9629629629635</v>
+        <v>576296.29629629641</v>
       </c>
       <c r="F47" s="9">
-        <v>28907.547169811322</v>
+        <v>2890754.716981132</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5">
@@ -7347,10 +7347,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -8188,13 +8188,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>3125</v>
+        <v>312500</v>
       </c>
       <c r="E45" s="9">
-        <v>31515.151515151512</v>
+        <v>3151515.1515151514</v>
       </c>
       <c r="F45" s="9">
-        <v>53360.606060606056</v>
+        <v>5336060.6060606055</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -8226,13 +8226,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>2265.625</v>
+        <v>226562.5</v>
       </c>
       <c r="E47" s="9">
-        <v>6060.606060606061</v>
+        <v>606060.60606060608</v>
       </c>
       <c r="F47" s="9">
-        <v>11487.878787878786</v>
+        <v>1148787.8787878787</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -8496,10 +8496,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -9336,10 +9336,10 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>811.53846153846143</v>
+        <v>81153.846153846142</v>
       </c>
       <c r="E45" s="9">
-        <v>7874.0740740740748</v>
+        <v>787407.40740740753</v>
       </c>
       <c r="F45" s="9">
         <v>0</v>
@@ -9374,10 +9374,10 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>1011.5384615384615</v>
+        <v>101153.84615384616</v>
       </c>
       <c r="E47" s="9">
-        <v>-1196.2962962962963</v>
+        <v>-119629.62962962964</v>
       </c>
       <c r="F47" s="9">
         <v>0</v>
@@ -9644,10 +9644,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -10522,13 +10522,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>720.83333333333337</v>
+        <v>72083.333333333343</v>
       </c>
       <c r="E47" s="9">
-        <v>6904.166666666667</v>
+        <v>690416.66666666674</v>
       </c>
       <c r="F47" s="9">
-        <v>6762.5</v>
+        <v>676250</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -10792,10 +10792,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -11632,13 +11632,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>2631.5789473684208</v>
+        <v>263157.89473684208</v>
       </c>
       <c r="E45" s="9">
-        <v>24358.974358974356</v>
+        <v>2435897.4358974355</v>
       </c>
       <c r="F45" s="9">
-        <v>21750</v>
+        <v>2175000</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -11670,13 +11670,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>12557.894736842105</v>
+        <v>1255789.4736842106</v>
       </c>
       <c r="E47" s="9">
-        <v>5789.7435897435889</v>
+        <v>578974.35897435888</v>
       </c>
       <c r="F47" s="9">
-        <v>242.5</v>
+        <v>24250</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -11940,10 +11940,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -12780,13 +12780,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>16194.444444444445</v>
+        <v>1619444.4444444445</v>
       </c>
       <c r="E45" s="9">
-        <v>2348.6486486486483</v>
+        <v>234864.86486486482</v>
       </c>
       <c r="F45" s="9">
-        <v>21450</v>
+        <v>2145000</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -12818,13 +12818,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>2166.6666666666665</v>
+        <v>216666.66666666666</v>
       </c>
       <c r="E47" s="9">
-        <v>4854.0540540540542</v>
+        <v>485405.40540540544</v>
       </c>
       <c r="F47" s="9">
-        <v>5157.8947368421059</v>
+        <v>515789.47368421056</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -13088,10 +13088,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -13934,7 +13934,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>13214.285714285714</v>
+        <v>1321428.5714285714</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -13969,10 +13969,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="9">
-        <v>3846.1538461538462</v>
+        <v>384615.38461538462</v>
       </c>
       <c r="F47" s="9">
-        <v>1732.1428571428571</v>
+        <v>173214.28571428571</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -14236,11 +14236,11 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" customHeight="1"/>
@@ -15077,13 +15077,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>6283.7837837837842</v>
+        <v>628378.37837837846</v>
       </c>
       <c r="E45" s="9">
-        <v>23344.805194805194</v>
+        <v>2334480.5194805195</v>
       </c>
       <c r="F45" s="9">
-        <v>11054.716981132073</v>
+        <v>1105471.6981132072</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" customHeight="1">
@@ -15115,13 +15115,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>25054.05405405405</v>
+        <v>2505405.405405405</v>
       </c>
       <c r="E47" s="9">
-        <v>13515.584415584413</v>
+        <v>1351558.4415584414</v>
       </c>
       <c r="F47" s="9">
-        <v>26639.622641509435</v>
+        <v>2663962.2641509436</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" customHeight="1">
@@ -15386,10 +15386,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -16226,13 +16226,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>2857.1428571428569</v>
+        <v>285714.28571428568</v>
       </c>
       <c r="E45" s="9">
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>4839.4736842105267</v>
+        <v>483947.3684210527</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -16264,13 +16264,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>3257.1428571428573</v>
+        <v>325714.28571428574</v>
       </c>
       <c r="E47" s="9">
-        <v>5945.9459459459458</v>
+        <v>594594.59459459456</v>
       </c>
       <c r="F47" s="9">
-        <v>6265.78947368421</v>
+        <v>626578.94736842101</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -16534,10 +16534,10 @@
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="20" customHeight="1"/>
@@ -17375,13 +17375,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>14765.384615384615</v>
+        <v>1476538.4615384615</v>
       </c>
       <c r="E45" s="9">
-        <v>5973.6842105263158</v>
+        <v>597368.42105263157</v>
       </c>
       <c r="F45" s="9">
-        <v>18120.689655172413</v>
+        <v>1812068.9655172413</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -17413,13 +17413,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>16384.615384615383</v>
+        <v>1638461.5384615383</v>
       </c>
       <c r="E47" s="9">
-        <v>1447.3684210526317</v>
+        <v>144736.84210526317</v>
       </c>
       <c r="F47" s="9">
-        <v>14558.620689655172</v>
+        <v>1455862.0689655172</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -17683,10 +17683,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -18831,10 +18831,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -19671,13 +19671,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>29530.76923076923</v>
+        <v>2953076.923076923</v>
       </c>
       <c r="E45" s="9">
-        <v>12611.111111111111</v>
+        <v>1261111.1111111112</v>
       </c>
       <c r="F45" s="9">
-        <v>37535.714285714283</v>
+        <v>3753571.4285714282</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -19709,13 +19709,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>32769.230769230766</v>
+        <v>3276923.0769230765</v>
       </c>
       <c r="E47" s="9">
-        <v>3055.5555555555557</v>
+        <v>305555.55555555556</v>
       </c>
       <c r="F47" s="9">
-        <v>30157.142857142855</v>
+        <v>3015714.2857142854</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -19979,10 +19979,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -20819,10 +20819,10 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>370.37037037037032</v>
+        <v>37037.037037037029</v>
       </c>
       <c r="E45" s="9">
-        <v>6710.9890109890111</v>
+        <v>671098.90109890117</v>
       </c>
       <c r="F45" s="9">
         <v>0</v>
@@ -20857,13 +20857,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>1234.5679012345679</v>
+        <v>123456.79012345678</v>
       </c>
       <c r="E47" s="9">
-        <v>329.67032967032969</v>
+        <v>32967.032967032967</v>
       </c>
       <c r="F47" s="9">
-        <v>216.12903225806448</v>
+        <v>21612.903225806447</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -21127,10 +21127,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -21967,13 +21967,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>2643.6781609195405</v>
+        <v>264367.81609195407</v>
       </c>
       <c r="E45" s="9">
-        <v>2324.431818181818</v>
+        <v>232443.18181818179</v>
       </c>
       <c r="F45" s="9">
-        <v>19147.191011235955</v>
+        <v>1914719.1011235954</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -22005,13 +22005,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>890.80459770114942</v>
+        <v>89080.459770114947</v>
       </c>
       <c r="E47" s="9">
-        <v>4095.4545454545455</v>
+        <v>409545.45454545453</v>
       </c>
       <c r="F47" s="9">
-        <v>6576.9662921348317</v>
+        <v>657696.62921348319</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -22275,10 +22275,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -23121,7 +23121,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>13447.826086956522</v>
+        <v>1344782.6086956521</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -23159,7 +23159,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="9">
-        <v>1739.1304347826087</v>
+        <v>173913.04347826086</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -23423,10 +23423,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -24301,10 +24301,10 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>192.30769230769232</v>
+        <v>19230.76923076923</v>
       </c>
       <c r="E47" s="9">
-        <v>1100</v>
+        <v>110000</v>
       </c>
       <c r="F47" s="9">
         <v>0</v>
@@ -24571,10 +24571,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -25417,7 +25417,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>24800</v>
+        <v>2480000</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -25455,7 +25455,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="9">
-        <v>25320</v>
+        <v>2532000</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -25719,10 +25719,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -26559,13 +26559,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>3793.1034482758619</v>
+        <v>379310.3448275862</v>
       </c>
       <c r="E45" s="9">
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>35000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -26600,7 +26600,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="9">
-        <v>3448.2758620689656</v>
+        <v>344827.58620689658</v>
       </c>
       <c r="F47" s="9">
         <v>0</v>
@@ -26866,11 +26866,11 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -27707,13 +27707,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>8857.1428571428569</v>
+        <v>885714.28571428568</v>
       </c>
       <c r="E45" s="9">
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>7647.2222222222226</v>
+        <v>764722.22222222225</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5">
@@ -27748,10 +27748,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="9">
-        <v>7965.7142857142862</v>
+        <v>796571.42857142864</v>
       </c>
       <c r="F47" s="9">
-        <v>5705.5555555555547</v>
+        <v>570555.5555555555</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5">
@@ -28016,10 +28016,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -28856,13 +28856,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>4000</v>
+        <v>400000</v>
       </c>
       <c r="E45" s="9">
-        <v>5833.3333333333339</v>
+        <v>583333.33333333337</v>
       </c>
       <c r="F45" s="9">
-        <v>12620.833333333332</v>
+        <v>1262083.3333333333</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -28897,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="9">
-        <v>5833.3333333333339</v>
+        <v>583333.33333333337</v>
       </c>
       <c r="F47" s="9">
         <v>0</v>
@@ -29164,10 +29164,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -30004,13 +30004,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="E45" s="9">
-        <v>10764</v>
+        <v>1076400</v>
       </c>
       <c r="F45" s="9">
-        <v>24076.923076923074</v>
+        <v>2407692.3076923075</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -30042,13 +30042,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>6000</v>
+        <v>600000</v>
       </c>
       <c r="E47" s="9">
-        <v>18000</v>
+        <v>1800000</v>
       </c>
       <c r="F47" s="9">
-        <v>5738.461538461539</v>
+        <v>573846.15384615387</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -30312,10 +30312,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -31159,7 +31159,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>13043.478260869566</v>
+        <v>1304347.8260869565</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -31197,7 +31197,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="9">
-        <v>15152.173913043478</v>
+        <v>1515217.3913043479</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -31461,10 +31461,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -32301,13 +32301,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>4347.826086956522</v>
+        <v>434782.60869565222</v>
       </c>
       <c r="E45" s="9">
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>10909.090909090908</v>
+        <v>1090909.0909090908</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -32339,13 +32339,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>4347.826086956522</v>
+        <v>434782.60869565222</v>
       </c>
       <c r="E47" s="9">
         <v>0</v>
       </c>
       <c r="F47" s="9">
-        <v>4090.909090909091</v>
+        <v>409090.90909090912</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -32609,10 +32609,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -33757,10 +33757,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -34905,10 +34905,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -36053,10 +36053,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -37201,10 +37201,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -38047,7 +38047,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>691.11111111111109</v>
+        <v>69111.111111111109</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -38085,7 +38085,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="9">
-        <v>9655.5555555555566</v>
+        <v>965555.55555555562</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -38349,10 +38349,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -39195,7 +39195,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>7812.5</v>
+        <v>781250</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -39227,10 +39227,10 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>275.86206896551727</v>
+        <v>27586.206896551728</v>
       </c>
       <c r="E47" s="9">
-        <v>3448.2758620689656</v>
+        <v>344827.58620689658</v>
       </c>
       <c r="F47" s="9">
         <v>0</v>
@@ -39496,11 +39496,11 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -40343,7 +40343,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>5714.2857142857138</v>
+        <v>571428.57142857136</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5">
@@ -40645,10 +40645,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -41485,13 +41485,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>2653.0612244897961</v>
+        <v>265306.12244897959</v>
       </c>
       <c r="E45" s="9">
-        <v>784.31372549019602</v>
+        <v>78431.372549019608</v>
       </c>
       <c r="F45" s="9">
-        <v>8800</v>
+        <v>880000</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -41523,13 +41523,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>7816.3265306122439</v>
+        <v>781632.65306122438</v>
       </c>
       <c r="E47" s="9">
-        <v>1768.627450980392</v>
+        <v>176862.74509803922</v>
       </c>
       <c r="F47" s="9">
-        <v>4600</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -41793,10 +41793,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -42941,10 +42941,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -43781,13 +43781,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="E45" s="9">
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>23900</v>
+        <v>2390000</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -43825,7 +43825,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="9">
-        <v>1136.3636363636363</v>
+        <v>113636.36363636363</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -44089,10 +44089,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -45237,10 +45237,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -46077,10 +46077,10 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>38292.682926829264</v>
+        <v>3829268.2926829262</v>
       </c>
       <c r="E45" s="9">
-        <v>8429.2682926829275</v>
+        <v>842926.82926829276</v>
       </c>
       <c r="F45" s="9">
         <v>0</v>
@@ -46115,13 +46115,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>19634.146341463413</v>
+        <v>1963414.6341463414</v>
       </c>
       <c r="E47" s="9">
-        <v>14765.853658536585</v>
+        <v>1476585.3658536586</v>
       </c>
       <c r="F47" s="9">
-        <v>161.90476190476193</v>
+        <v>16190.476190476193</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -46385,10 +46385,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -47225,13 +47225,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>42857.142857142855</v>
+        <v>4285714.2857142854</v>
       </c>
       <c r="E45" s="9">
-        <v>100942.85714285714</v>
+        <v>10094285.714285715</v>
       </c>
       <c r="F45" s="9">
-        <v>6511.6279069767443</v>
+        <v>651162.79069767438</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -47263,13 +47263,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>30047.619047619046</v>
+        <v>3004761.9047619044</v>
       </c>
       <c r="E47" s="9">
-        <v>13095.238095238095</v>
+        <v>1309523.8095238095</v>
       </c>
       <c r="F47" s="9">
-        <v>6655.8139534883721</v>
+        <v>665581.39534883725</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -47533,10 +47533,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -48681,10 +48681,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -49524,10 +49524,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="9">
-        <v>26190.476190476191</v>
+        <v>2619047.6190476189</v>
       </c>
       <c r="F45" s="9">
-        <v>46261.904761904763</v>
+        <v>4626190.4761904767</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -49559,13 +49559,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>142.85714285714286</v>
+        <v>14285.714285714286</v>
       </c>
       <c r="E47" s="9">
         <v>0</v>
       </c>
       <c r="F47" s="9">
-        <v>26871.428571428572</v>
+        <v>2687142.8571428573</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -49829,10 +49829,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -50669,7 +50669,7 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>384.61538461538464</v>
+        <v>38461.538461538461</v>
       </c>
       <c r="E45" s="9">
         <v>0</v>
@@ -50707,10 +50707,10 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>384.61538461538464</v>
+        <v>38461.538461538461</v>
       </c>
       <c r="E47" s="9">
-        <v>46153.846153846149</v>
+        <v>4615384.615384615</v>
       </c>
       <c r="F47" s="9">
         <v>0</v>
@@ -50977,10 +50977,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -51855,7 +51855,7 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>33333.333333333336</v>
+        <v>3333333.3333333335</v>
       </c>
       <c r="E47" s="9">
         <v>0</v>
@@ -52124,11 +52124,11 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -52968,10 +52968,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="9">
-        <v>21538.461538461539</v>
+        <v>2153846.153846154</v>
       </c>
       <c r="F45" s="9">
-        <v>1785.7142857142858</v>
+        <v>178571.42857142858</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5">
@@ -53003,13 +53003,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>27538.461538461539</v>
+        <v>2753846.153846154</v>
       </c>
       <c r="E47" s="9">
-        <v>7692.3076923076924</v>
+        <v>769230.76923076925</v>
       </c>
       <c r="F47" s="9">
-        <v>6242.8571428571431</v>
+        <v>624285.71428571432</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5">
@@ -53273,10 +53273,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -54114,13 +54114,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>2633.9285714285716</v>
+        <v>263392.85714285716</v>
       </c>
       <c r="E45" s="9">
-        <v>3108.333333333333</v>
+        <v>310833.33333333331</v>
       </c>
       <c r="F45" s="9">
-        <v>4721.0526315789475</v>
+        <v>472105.26315789478</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -54152,13 +54152,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>6358.9285714285716</v>
+        <v>635892.85714285716</v>
       </c>
       <c r="E47" s="9">
-        <v>27748.333333333336</v>
+        <v>2774833.3333333335</v>
       </c>
       <c r="F47" s="9">
-        <v>7070.1754385964914</v>
+        <v>707017.5438596491</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -54422,10 +54422,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -55262,10 +55262,10 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>1166.6666666666667</v>
+        <v>116666.66666666667</v>
       </c>
       <c r="E45" s="9">
-        <v>3989.0710382513662</v>
+        <v>398907.10382513661</v>
       </c>
       <c r="F45" s="9">
         <v>0</v>
@@ -55300,13 +55300,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>1941.6666666666667</v>
+        <v>194166.66666666669</v>
       </c>
       <c r="E47" s="9">
-        <v>1092.8961748633878</v>
+        <v>109289.61748633879</v>
       </c>
       <c r="F47" s="9">
-        <v>494.70899470899474</v>
+        <v>49470.899470899472</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -55570,10 +55570,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -56410,10 +56410,10 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>1858.4070796460178</v>
+        <v>185840.70796460178</v>
       </c>
       <c r="E45" s="9">
-        <v>6347.826086956522</v>
+        <v>634782.60869565222</v>
       </c>
       <c r="F45" s="9">
         <v>0</v>
@@ -56448,13 +56448,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>2123.8938053097345</v>
+        <v>212389.38053097346</v>
       </c>
       <c r="E47" s="9">
-        <v>1739.1304347826087</v>
+        <v>173913.04347826086</v>
       </c>
       <c r="F47" s="9">
-        <v>806.03448275862058</v>
+        <v>80603.448275862058</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -56718,10 +56718,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -57596,7 +57596,7 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>1634.3283582089553</v>
+        <v>163432.83582089553</v>
       </c>
       <c r="E47" s="9">
         <v>0</v>
@@ -57866,10 +57866,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1640625" defaultRowHeight="14"/>
@@ -58707,7 +58707,7 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>7777.7777777777783</v>
+        <v>777777.77777777787</v>
       </c>
       <c r="E45" s="9">
         <v>0</v>
@@ -58745,7 +58745,7 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>925.92592592592587</v>
+        <v>92592.592592592584</v>
       </c>
       <c r="E47" s="9">
         <v>0</v>
@@ -59015,10 +59015,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -59861,7 +59861,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>5000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -59893,13 +59893,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="E47" s="9">
-        <v>833.33333333333326</v>
+        <v>83333.333333333328</v>
       </c>
       <c r="F47" s="9">
-        <v>3333.333333333333</v>
+        <v>333333.33333333331</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -60163,10 +60163,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -60972,14 +60972,14 @@
       <c r="C45" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>116</v>
+      <c r="D45" s="9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E45" s="9" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="F45" s="9">
-        <v>2890.909090909091</v>
+        <v>289090.90909090912</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -60990,11 +60990,11 @@
       <c r="C46" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>116</v>
+      <c r="D46" s="9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E46" s="9" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="F46" s="9">
         <v>0</v>
@@ -61010,11 +61010,11 @@
       <c r="C47" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>116</v>
+      <c r="D47" s="9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E47" s="9" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="F47" s="9">
         <v>0</v>
@@ -61269,10 +61269,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -62115,7 +62115,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>1680</v>
+        <v>168000</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -62147,13 +62147,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>227.27272727272728</v>
+        <v>22727.272727272728</v>
       </c>
       <c r="E47" s="9">
-        <v>17272.727272727272</v>
+        <v>1727272.7272727273</v>
       </c>
       <c r="F47" s="9">
-        <v>816.00000000000011</v>
+        <v>81600.000000000015</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -62417,10 +62417,10 @@
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20" customHeight="1"/>
@@ -63263,7 +63263,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>8024.2424242424249</v>
+        <v>802424.24242424255</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -63565,10 +63565,10 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14"/>
@@ -64412,7 +64412,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="9">
-        <v>43750</v>
+        <v>4375000</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -64450,7 +64450,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="9">
-        <v>12500</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -64713,11 +64713,11 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -65554,13 +65554,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>7000</v>
+        <v>700000</v>
       </c>
       <c r="E45" s="9">
-        <v>75159.375</v>
+        <v>7515937.5</v>
       </c>
       <c r="F45" s="9">
-        <v>38512.5</v>
+        <v>3851250</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5">
@@ -65592,13 +65592,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>91399.999999999985</v>
+        <v>9139999.9999999981</v>
       </c>
       <c r="E47" s="9">
-        <v>47581.25</v>
+        <v>4758125</v>
       </c>
       <c r="F47" s="9">
-        <v>120484.375</v>
+        <v>12048437.5</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5">
@@ -65862,10 +65862,10 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -66687,14 +66687,14 @@
       <c r="C45" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>116</v>
+      <c r="D45" s="9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E45" s="9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F45" s="9" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -66705,14 +66705,14 @@
       <c r="C46" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>116</v>
+      <c r="D46" s="9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E46" s="9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F46" s="9" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20" customHeight="1">
@@ -66725,14 +66725,14 @@
       <c r="C47" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>116</v>
+      <c r="D47" s="9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E47" s="9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F47" s="9" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -66989,7 +66989,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20" customHeight="1"/>
@@ -67827,13 +67827,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>448.93617021276594</v>
+        <v>44893.617021276594</v>
       </c>
       <c r="E45" s="9">
-        <v>4011.3207547169814</v>
+        <v>401132.07547169813</v>
       </c>
       <c r="F45" s="9">
-        <v>6491.2280701754389</v>
+        <v>649122.80701754394</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -67865,13 +67865,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>559.57446808510633</v>
+        <v>55957.446808510635</v>
       </c>
       <c r="E47" s="9">
-        <v>1277.3584905660375</v>
+        <v>127735.84905660375</v>
       </c>
       <c r="F47" s="9">
-        <v>850.87719298245599</v>
+        <v>85087.719298245604</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -68133,7 +68133,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20" customHeight="1"/>
@@ -68970,13 +68970,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>40602.409638554214</v>
+        <v>4060240.9638554216</v>
       </c>
       <c r="E45" s="9">
-        <v>55243.373493975902</v>
+        <v>5524337.3493975904</v>
       </c>
       <c r="F45" s="9">
-        <v>3294.1176470588234</v>
+        <v>329411.76470588235</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -69008,13 +69008,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>24903.614457831321</v>
+        <v>2490361.4457831322</v>
       </c>
       <c r="E47" s="9">
-        <v>13920.481927710842</v>
+        <v>1392048.1927710841</v>
       </c>
       <c r="F47" s="9">
-        <v>3447.0588235294122</v>
+        <v>344705.8823529412</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" customHeight="1">
@@ -69276,11 +69276,11 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -70117,10 +70117,10 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>15185.185185185186</v>
+        <v>1518518.5185185187</v>
       </c>
       <c r="E45" s="9">
-        <v>22500</v>
+        <v>2250000</v>
       </c>
       <c r="F45" s="9">
         <v>0</v>
@@ -70155,10 +70155,10 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>9259.2592592592591</v>
+        <v>925925.92592592596</v>
       </c>
       <c r="E47" s="9">
-        <v>2857.1428571428569</v>
+        <v>285714.28571428568</v>
       </c>
       <c r="F47" s="9">
         <v>0</v>
@@ -70424,11 +70424,11 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -71265,13 +71265,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>215189.87341772154</v>
+        <v>21518987.341772154</v>
       </c>
       <c r="E45" s="9">
-        <v>574.71264367816093</v>
+        <v>57471.264367816097</v>
       </c>
       <c r="F45" s="9">
-        <v>11795.698924731183</v>
+        <v>1179569.8924731184</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5">
@@ -71303,13 +71303,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>13924.050632911394</v>
+        <v>1392405.0632911394</v>
       </c>
       <c r="E47" s="9">
-        <v>210519.54022988502</v>
+        <v>21051954.022988502</v>
       </c>
       <c r="F47" s="9">
-        <v>29259.139784946241</v>
+        <v>2925913.9784946241</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5">
@@ -71572,11 +71572,11 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K42" sqref="K42"/>
+      <selection pane="topRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
@@ -72413,13 +72413,13 @@
         <v>115</v>
       </c>
       <c r="D45" s="9">
-        <v>4166.666666666667</v>
+        <v>416666.66666666669</v>
       </c>
       <c r="E45" s="9">
-        <v>1071.4285714285713</v>
+        <v>107142.85714285713</v>
       </c>
       <c r="F45" s="9">
-        <v>5970.9677419354848</v>
+        <v>597096.77419354848</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5">
@@ -72451,13 +72451,13 @@
         <v>115</v>
       </c>
       <c r="D47" s="9">
-        <v>4166.666666666667</v>
+        <v>416666.66666666669</v>
       </c>
       <c r="E47" s="9">
         <v>0</v>
       </c>
       <c r="F47" s="9">
-        <v>2516.1290322580644</v>
+        <v>251612.90322580643</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5">
